--- a/crm-vtiger-fw-A12-working/src/test/resources/testScriptData.xlsx
+++ b/crm-vtiger-fw-A12-working/src/test/resources/testScriptData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A12" sheetId="1" r:id="rId1"/>
     <sheet name="opportunities" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="organization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -109,12 +109,19 @@
   </si>
   <si>
     <t>Jordan</t>
+  </si>
+  <si>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>EY__</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -489,7 +496,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -582,13 +589,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -654,12 +661,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.54296875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>